--- a/Argentina Reserve League/Argentina Reserve League.xlsx
+++ b/Argentina Reserve League/Argentina Reserve League.xlsx
@@ -101936,7 +101936,7 @@
         <v>1136</v>
       </c>
       <c r="B1138">
-        <v>7752730</v>
+        <v>7752729</v>
       </c>
       <c r="C1138" t="s">
         <v>28</v>
@@ -101948,10 +101948,10 @@
         <v>45329.875</v>
       </c>
       <c r="F1138" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G1138" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H1138">
         <v>1</v>
@@ -101963,43 +101963,43 @@
         <v>117</v>
       </c>
       <c r="K1138">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="L1138">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M1138">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N1138">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="O1138">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P1138">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q1138">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1138">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S1138">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T1138">
         <v>2.25</v>
       </c>
       <c r="U1138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V1138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W1138">
-        <v>2.3</v>
+        <v>0.571</v>
       </c>
       <c r="X1138">
         <v>-1</v>
@@ -102008,16 +102008,16 @@
         <v>-1</v>
       </c>
       <c r="Z1138">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA1138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1138">
         <v>-1</v>
       </c>
       <c r="AC1138">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="1139" spans="1:29">
@@ -102025,7 +102025,7 @@
         <v>1137</v>
       </c>
       <c r="B1139">
-        <v>7752729</v>
+        <v>7752730</v>
       </c>
       <c r="C1139" t="s">
         <v>28</v>
@@ -102037,10 +102037,10 @@
         <v>45329.875</v>
       </c>
       <c r="F1139" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G1139" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H1139">
         <v>1</v>
@@ -102052,43 +102052,43 @@
         <v>117</v>
       </c>
       <c r="K1139">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="L1139">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M1139">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N1139">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="O1139">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P1139">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q1139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R1139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S1139">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T1139">
         <v>2.25</v>
       </c>
       <c r="U1139">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V1139">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W1139">
-        <v>0.571</v>
+        <v>2.3</v>
       </c>
       <c r="X1139">
         <v>-1</v>
@@ -102097,16 +102097,16 @@
         <v>-1</v>
       </c>
       <c r="Z1139">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA1139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1139">
         <v>-1</v>
       </c>
       <c r="AC1139">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1140" spans="1:29">
@@ -102114,7 +102114,7 @@
         <v>1138</v>
       </c>
       <c r="B1140">
-        <v>7752701</v>
+        <v>7752465</v>
       </c>
       <c r="C1140" t="s">
         <v>28</v>
@@ -102126,76 +102126,76 @@
         <v>45330.70833333334</v>
       </c>
       <c r="F1140" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G1140" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H1140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1140" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K1140">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L1140">
         <v>3.1</v>
       </c>
       <c r="M1140">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N1140">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O1140">
+        <v>3</v>
+      </c>
+      <c r="P1140">
         <v>3.1</v>
       </c>
-      <c r="P1140">
-        <v>4.2</v>
-      </c>
       <c r="Q1140">
+        <v>-0.25</v>
+      </c>
+      <c r="R1140">
+        <v>1.9</v>
+      </c>
+      <c r="S1140">
+        <v>1.9</v>
+      </c>
+      <c r="T1140">
+        <v>2.25</v>
+      </c>
+      <c r="U1140">
+        <v>2.025</v>
+      </c>
+      <c r="V1140">
+        <v>1.775</v>
+      </c>
+      <c r="W1140">
+        <v>-1</v>
+      </c>
+      <c r="X1140">
+        <v>2</v>
+      </c>
+      <c r="Y1140">
+        <v>-1</v>
+      </c>
+      <c r="Z1140">
         <v>-0.5</v>
       </c>
-      <c r="R1140">
-        <v>1.825</v>
-      </c>
-      <c r="S1140">
-        <v>1.975</v>
-      </c>
-      <c r="T1140">
-        <v>2</v>
-      </c>
-      <c r="U1140">
-        <v>1.95</v>
-      </c>
-      <c r="V1140">
-        <v>1.85</v>
-      </c>
-      <c r="W1140">
-        <v>0.8</v>
-      </c>
-      <c r="X1140">
-        <v>-1</v>
-      </c>
-      <c r="Y1140">
-        <v>-1</v>
-      </c>
-      <c r="Z1140">
-        <v>0.825</v>
-      </c>
       <c r="AA1140">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB1140">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1140">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="1141" spans="1:29">
@@ -102203,7 +102203,7 @@
         <v>1139</v>
       </c>
       <c r="B1141">
-        <v>7752465</v>
+        <v>7752701</v>
       </c>
       <c r="C1141" t="s">
         <v>28</v>
@@ -102215,76 +102215,76 @@
         <v>45330.70833333334</v>
       </c>
       <c r="F1141" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G1141" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H1141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1141" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1141">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L1141">
         <v>3.1</v>
       </c>
       <c r="M1141">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N1141">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O1141">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P1141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q1141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S1141">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T1141">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V1141">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W1141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1141">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y1141">
         <v>-1</v>
       </c>
       <c r="Z1141">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA1141">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB1141">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC1141">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1142" spans="1:29">

--- a/Argentina Reserve League/Argentina Reserve League.xlsx
+++ b/Argentina Reserve League/Argentina Reserve League.xlsx
@@ -60195,7 +60195,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>7505027</v>
+        <v>7505024</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60207,13 +60207,13 @@
         <v>45251.70833333334</v>
       </c>
       <c r="F669" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="G669" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H669">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I669">
         <v>0</v>
@@ -60225,31 +60225,31 @@
         <v>1.8</v>
       </c>
       <c r="L669">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M669">
         <v>4</v>
       </c>
       <c r="N669">
+        <v>1.2</v>
+      </c>
+      <c r="O669">
+        <v>6</v>
+      </c>
+      <c r="P669">
+        <v>11</v>
+      </c>
+      <c r="Q669">
+        <v>-2</v>
+      </c>
+      <c r="R669">
         <v>1.8</v>
       </c>
-      <c r="O669">
-        <v>3.2</v>
-      </c>
-      <c r="P669">
-        <v>4</v>
-      </c>
-      <c r="Q669">
-        <v>-0.5</v>
-      </c>
-      <c r="R669">
-        <v>1.85</v>
-      </c>
       <c r="S669">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T669">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U669">
         <v>1.95</v>
@@ -60258,16 +60258,16 @@
         <v>1.85</v>
       </c>
       <c r="W669">
+        <v>0.2</v>
+      </c>
+      <c r="X669">
+        <v>-1</v>
+      </c>
+      <c r="Y669">
+        <v>-1</v>
+      </c>
+      <c r="Z669">
         <v>0.8</v>
-      </c>
-      <c r="X669">
-        <v>-1</v>
-      </c>
-      <c r="Y669">
-        <v>-1</v>
-      </c>
-      <c r="Z669">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AA669">
         <v>-1</v>
@@ -60284,7 +60284,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>7505024</v>
+        <v>7505026</v>
       </c>
       <c r="C670" t="s">
         <v>28</v>
@@ -60296,73 +60296,73 @@
         <v>45251.70833333334</v>
       </c>
       <c r="F670" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G670" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H670">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I670">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J670" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K670">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L670">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M670">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N670">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="O670">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P670">
-        <v>11</v>
+        <v>1.65</v>
       </c>
       <c r="Q670">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R670">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S670">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T670">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U670">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V670">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W670">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X670">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y670">
         <v>-1</v>
       </c>
       <c r="Z670">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA670">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB670">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC670">
         <v>-1</v>
@@ -60373,7 +60373,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>7505026</v>
+        <v>7505027</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60385,73 +60385,73 @@
         <v>45251.70833333334</v>
       </c>
       <c r="F671" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G671" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I671">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J671" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K671">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L671">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M671">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N671">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="O671">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P671">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="Q671">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R671">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S671">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T671">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U671">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V671">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W671">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X671">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y671">
         <v>-1</v>
       </c>
       <c r="Z671">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA671">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB671">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC671">
         <v>-1</v>
@@ -62509,7 +62509,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>7752465</v>
+        <v>7754653</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62521,76 +62521,76 @@
         <v>45330.70833333334</v>
       </c>
       <c r="F695" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G695" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J695" t="s">
         <v>117</v>
       </c>
       <c r="K695">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="L695">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M695">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N695">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O695">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P695">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q695">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R695">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S695">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T695">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U695">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V695">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W695">
         <v>-1</v>
       </c>
       <c r="X695">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Y695">
         <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA695">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB695">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC695">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62598,7 +62598,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>7754653</v>
+        <v>7752465</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62610,76 +62610,76 @@
         <v>45330.70833333334</v>
       </c>
       <c r="F696" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G696" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I696">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J696" t="s">
         <v>117</v>
       </c>
       <c r="K696">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="L696">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M696">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N696">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O696">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P696">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q696">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R696">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S696">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T696">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U696">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V696">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W696">
         <v>-1</v>
       </c>
       <c r="X696">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Y696">
         <v>-1</v>
       </c>
       <c r="Z696">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA696">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB696">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC696">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="697" spans="1:29">
@@ -62776,7 +62776,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>7752610</v>
+        <v>7752662</v>
       </c>
       <c r="C698" t="s">
         <v>28</v>
@@ -62788,76 +62788,76 @@
         <v>45343.70833333334</v>
       </c>
       <c r="F698" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G698" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I698">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J698" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K698">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L698">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M698">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N698">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O698">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P698">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q698">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R698">
+        <v>1.95</v>
+      </c>
+      <c r="S698">
+        <v>1.85</v>
+      </c>
+      <c r="T698">
+        <v>2</v>
+      </c>
+      <c r="U698">
         <v>1.8</v>
       </c>
-      <c r="S698">
-        <v>2</v>
-      </c>
-      <c r="T698">
-        <v>2</v>
-      </c>
-      <c r="U698">
-        <v>1.95</v>
-      </c>
       <c r="V698">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W698">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X698">
         <v>-1</v>
       </c>
       <c r="Y698">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z698">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA698">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB698">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC698">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="699" spans="1:29">
@@ -62865,7 +62865,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>7754651</v>
+        <v>7752610</v>
       </c>
       <c r="C699" t="s">
         <v>28</v>
@@ -62877,76 +62877,76 @@
         <v>45343.70833333334</v>
       </c>
       <c r="F699" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G699" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J699" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K699">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L699">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M699">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N699">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O699">
         <v>3</v>
       </c>
       <c r="P699">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q699">
         <v>-0.25</v>
       </c>
       <c r="R699">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S699">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T699">
         <v>2</v>
       </c>
       <c r="U699">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V699">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W699">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X699">
         <v>-1</v>
       </c>
       <c r="Y699">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z699">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA699">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB699">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC699">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="700" spans="1:29">
@@ -62954,7 +62954,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>7752662</v>
+        <v>7754651</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62966,58 +62966,58 @@
         <v>45343.70833333334</v>
       </c>
       <c r="F700" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G700" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="H700">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J700" t="s">
         <v>118</v>
       </c>
       <c r="K700">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L700">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M700">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N700">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O700">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P700">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q700">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R700">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S700">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T700">
         <v>2</v>
       </c>
       <c r="U700">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V700">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W700">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X700">
         <v>-1</v>
@@ -63026,16 +63026,16 @@
         <v>-1</v>
       </c>
       <c r="Z700">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA700">
         <v>-1</v>
       </c>
       <c r="AB700">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC700">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -63310,7 +63310,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>7866971</v>
+        <v>7752733</v>
       </c>
       <c r="C704" t="s">
         <v>28</v>
@@ -63322,16 +63322,16 @@
         <v>45344.70833333334</v>
       </c>
       <c r="F704" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G704" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H704">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I704">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J704" t="s">
         <v>118</v>
@@ -63340,40 +63340,40 @@
         <v>1.571</v>
       </c>
       <c r="L704">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M704">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="N704">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O704">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P704">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q704">
         <v>-0.75</v>
       </c>
       <c r="R704">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S704">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T704">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U704">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V704">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W704">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X704">
         <v>-1</v>
@@ -63382,13 +63382,13 @@
         <v>-1</v>
       </c>
       <c r="Z704">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA704">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB704">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC704">
         <v>-1</v>
@@ -63399,7 +63399,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>7752733</v>
+        <v>7866971</v>
       </c>
       <c r="C705" t="s">
         <v>28</v>
@@ -63411,16 +63411,16 @@
         <v>45344.70833333334</v>
       </c>
       <c r="F705" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G705" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I705">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J705" t="s">
         <v>118</v>
@@ -63429,40 +63429,40 @@
         <v>1.571</v>
       </c>
       <c r="L705">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M705">
-        <v>5.25</v>
+        <v>4.8</v>
       </c>
       <c r="N705">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O705">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P705">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q705">
         <v>-0.75</v>
       </c>
       <c r="R705">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S705">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T705">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U705">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V705">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W705">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X705">
         <v>-1</v>
@@ -63471,13 +63471,13 @@
         <v>-1</v>
       </c>
       <c r="Z705">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA705">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB705">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC705">
         <v>-1</v>
@@ -63488,7 +63488,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>7752609</v>
+        <v>7752703</v>
       </c>
       <c r="C706" t="s">
         <v>28</v>
@@ -63500,10 +63500,10 @@
         <v>45344.70833333334</v>
       </c>
       <c r="F706" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="G706" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H706">
         <v>0</v>
@@ -63515,41 +63515,41 @@
         <v>119</v>
       </c>
       <c r="K706">
+        <v>2.05</v>
+      </c>
+      <c r="L706">
+        <v>3</v>
+      </c>
+      <c r="M706">
+        <v>3.4</v>
+      </c>
+      <c r="N706">
+        <v>2.25</v>
+      </c>
+      <c r="O706">
+        <v>3</v>
+      </c>
+      <c r="P706">
+        <v>3</v>
+      </c>
+      <c r="Q706">
+        <v>-0.25</v>
+      </c>
+      <c r="R706">
+        <v>2.05</v>
+      </c>
+      <c r="S706">
+        <v>1.75</v>
+      </c>
+      <c r="T706">
+        <v>2</v>
+      </c>
+      <c r="U706">
+        <v>2</v>
+      </c>
+      <c r="V706">
         <v>1.8</v>
       </c>
-      <c r="L706">
-        <v>3.25</v>
-      </c>
-      <c r="M706">
-        <v>4</v>
-      </c>
-      <c r="N706">
-        <v>1.85</v>
-      </c>
-      <c r="O706">
-        <v>3.3</v>
-      </c>
-      <c r="P706">
-        <v>3.6</v>
-      </c>
-      <c r="Q706">
-        <v>-0.5</v>
-      </c>
-      <c r="R706">
-        <v>1.95</v>
-      </c>
-      <c r="S706">
-        <v>1.85</v>
-      </c>
-      <c r="T706">
-        <v>2.25</v>
-      </c>
-      <c r="U706">
-        <v>2.05</v>
-      </c>
-      <c r="V706">
-        <v>1.75</v>
-      </c>
       <c r="W706">
         <v>-1</v>
       </c>
@@ -63557,19 +63557,19 @@
         <v>-1</v>
       </c>
       <c r="Y706">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z706">
         <v>-1</v>
       </c>
       <c r="AA706">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB706">
         <v>-1</v>
       </c>
       <c r="AC706">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="707" spans="1:29">
@@ -63577,7 +63577,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>7752703</v>
+        <v>7752609</v>
       </c>
       <c r="C707" t="s">
         <v>28</v>
@@ -63589,10 +63589,10 @@
         <v>45344.70833333334</v>
       </c>
       <c r="F707" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="G707" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="H707">
         <v>0</v>
@@ -63604,41 +63604,41 @@
         <v>119</v>
       </c>
       <c r="K707">
+        <v>1.8</v>
+      </c>
+      <c r="L707">
+        <v>3.25</v>
+      </c>
+      <c r="M707">
+        <v>4</v>
+      </c>
+      <c r="N707">
+        <v>1.85</v>
+      </c>
+      <c r="O707">
+        <v>3.3</v>
+      </c>
+      <c r="P707">
+        <v>3.6</v>
+      </c>
+      <c r="Q707">
+        <v>-0.5</v>
+      </c>
+      <c r="R707">
+        <v>1.95</v>
+      </c>
+      <c r="S707">
+        <v>1.85</v>
+      </c>
+      <c r="T707">
+        <v>2.25</v>
+      </c>
+      <c r="U707">
         <v>2.05</v>
       </c>
-      <c r="L707">
-        <v>3</v>
-      </c>
-      <c r="M707">
-        <v>3.4</v>
-      </c>
-      <c r="N707">
-        <v>2.25</v>
-      </c>
-      <c r="O707">
-        <v>3</v>
-      </c>
-      <c r="P707">
-        <v>3</v>
-      </c>
-      <c r="Q707">
-        <v>-0.25</v>
-      </c>
-      <c r="R707">
-        <v>2.05</v>
-      </c>
-      <c r="S707">
+      <c r="V707">
         <v>1.75</v>
       </c>
-      <c r="T707">
-        <v>2</v>
-      </c>
-      <c r="U707">
-        <v>2</v>
-      </c>
-      <c r="V707">
-        <v>1.8</v>
-      </c>
       <c r="W707">
         <v>-1</v>
       </c>
@@ -63646,19 +63646,19 @@
         <v>-1</v>
       </c>
       <c r="Y707">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z707">
         <v>-1</v>
       </c>
       <c r="AA707">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB707">
+        <v>-1</v>
+      </c>
+      <c r="AC707">
         <v>0.75</v>
-      </c>
-      <c r="AB707">
-        <v>-1</v>
-      </c>
-      <c r="AC707">
-        <v>0.8</v>
       </c>
     </row>
     <row r="708" spans="1:29">
@@ -64022,7 +64022,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>7888487</v>
+        <v>7752705</v>
       </c>
       <c r="C712" t="s">
         <v>28</v>
@@ -64034,76 +64034,76 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F712" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G712" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712">
+        <v>0</v>
+      </c>
+      <c r="J712" t="s">
+        <v>117</v>
+      </c>
+      <c r="K712">
+        <v>2.375</v>
+      </c>
+      <c r="L712">
         <v>3</v>
       </c>
-      <c r="J712" t="s">
-        <v>119</v>
-      </c>
-      <c r="K712">
-        <v>1.909</v>
-      </c>
-      <c r="L712">
+      <c r="M712">
         <v>2.9</v>
       </c>
-      <c r="M712">
-        <v>4</v>
-      </c>
       <c r="N712">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O712">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P712">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q712">
         <v>-0.5</v>
       </c>
       <c r="R712">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S712">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T712">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U712">
         <v>1.975</v>
       </c>
       <c r="V712">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W712">
         <v>-1</v>
       </c>
       <c r="X712">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y712">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z712">
         <v>-1</v>
       </c>
       <c r="AA712">
+        <v>1.025</v>
+      </c>
+      <c r="AB712">
+        <v>-1</v>
+      </c>
+      <c r="AC712">
         <v>0.825</v>
-      </c>
-      <c r="AB712">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC712">
-        <v>-1</v>
       </c>
     </row>
     <row r="713" spans="1:29">
@@ -64111,7 +64111,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>7752705</v>
+        <v>7888487</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -64123,76 +64123,76 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F713" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G713" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I713">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J713" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K713">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L713">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M713">
+        <v>4</v>
+      </c>
+      <c r="N713">
+        <v>1.909</v>
+      </c>
+      <c r="O713">
         <v>2.9</v>
       </c>
-      <c r="N713">
-        <v>1.727</v>
-      </c>
-      <c r="O713">
-        <v>3.3</v>
-      </c>
       <c r="P713">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q713">
         <v>-0.5</v>
       </c>
       <c r="R713">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S713">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T713">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U713">
         <v>1.975</v>
       </c>
       <c r="V713">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W713">
         <v>-1</v>
       </c>
       <c r="X713">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y713">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z713">
         <v>-1</v>
       </c>
       <c r="AA713">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB713">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC713">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="714" spans="1:29">
@@ -64200,7 +64200,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>7752738</v>
+        <v>7888484</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64212,10 +64212,10 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F714" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G714" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H714">
         <v>0</v>
@@ -64227,40 +64227,40 @@
         <v>119</v>
       </c>
       <c r="K714">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L714">
         <v>3</v>
       </c>
       <c r="M714">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N714">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="O714">
         <v>3</v>
       </c>
       <c r="P714">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q714">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R714">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S714">
+        <v>1.775</v>
+      </c>
+      <c r="T714">
+        <v>2</v>
+      </c>
+      <c r="U714">
         <v>1.8</v>
       </c>
-      <c r="T714">
-        <v>2</v>
-      </c>
-      <c r="U714">
-        <v>1.825</v>
-      </c>
       <c r="V714">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W714">
         <v>-1</v>
@@ -64269,19 +64269,19 @@
         <v>-1</v>
       </c>
       <c r="Y714">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="Z714">
         <v>-1</v>
       </c>
       <c r="AA714">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB714">
         <v>-1</v>
       </c>
       <c r="AC714">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64378,7 +64378,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>7888484</v>
+        <v>7752738</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64390,10 +64390,10 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F716" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G716" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H716">
         <v>0</v>
@@ -64405,40 +64405,40 @@
         <v>119</v>
       </c>
       <c r="K716">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L716">
         <v>3</v>
       </c>
       <c r="M716">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N716">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="O716">
         <v>3</v>
       </c>
       <c r="P716">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q716">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R716">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S716">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T716">
         <v>2</v>
       </c>
       <c r="U716">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V716">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W716">
         <v>-1</v>
@@ -64447,19 +64447,19 @@
         <v>-1</v>
       </c>
       <c r="Y716">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="Z716">
         <v>-1</v>
       </c>
       <c r="AA716">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB716">
         <v>-1</v>
       </c>
       <c r="AC716">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64645,7 +64645,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>7888489</v>
+        <v>7888412</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64657,10 +64657,10 @@
         <v>45350.375</v>
       </c>
       <c r="F719" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="G719" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H719">
         <v>1</v>
@@ -64672,61 +64672,61 @@
         <v>117</v>
       </c>
       <c r="K719">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L719">
+        <v>3.1</v>
+      </c>
+      <c r="M719">
+        <v>2.1</v>
+      </c>
+      <c r="N719">
         <v>3.2</v>
       </c>
-      <c r="M719">
-        <v>4</v>
-      </c>
-      <c r="N719">
-        <v>1.8</v>
-      </c>
       <c r="O719">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P719">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q719">
+        <v>0.25</v>
+      </c>
+      <c r="R719">
+        <v>1.95</v>
+      </c>
+      <c r="S719">
+        <v>1.85</v>
+      </c>
+      <c r="T719">
+        <v>2</v>
+      </c>
+      <c r="U719">
+        <v>1.9</v>
+      </c>
+      <c r="V719">
+        <v>1.9</v>
+      </c>
+      <c r="W719">
+        <v>-1</v>
+      </c>
+      <c r="X719">
+        <v>2.1</v>
+      </c>
+      <c r="Y719">
+        <v>-1</v>
+      </c>
+      <c r="Z719">
+        <v>0.475</v>
+      </c>
+      <c r="AA719">
         <v>-0.5</v>
       </c>
-      <c r="R719">
-        <v>1.825</v>
-      </c>
-      <c r="S719">
-        <v>1.975</v>
-      </c>
-      <c r="T719">
-        <v>2.5</v>
-      </c>
-      <c r="U719">
-        <v>1.95</v>
-      </c>
-      <c r="V719">
-        <v>1.75</v>
-      </c>
-      <c r="W719">
-        <v>-1</v>
-      </c>
-      <c r="X719">
-        <v>2.75</v>
-      </c>
-      <c r="Y719">
-        <v>-1</v>
-      </c>
-      <c r="Z719">
-        <v>-1</v>
-      </c>
-      <c r="AA719">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB719">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC719">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64823,7 +64823,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>7888412</v>
+        <v>7888489</v>
       </c>
       <c r="C721" t="s">
         <v>28</v>
@@ -64835,10 +64835,10 @@
         <v>45350.375</v>
       </c>
       <c r="F721" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G721" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="H721">
         <v>1</v>
@@ -64850,61 +64850,61 @@
         <v>117</v>
       </c>
       <c r="K721">
+        <v>1.8</v>
+      </c>
+      <c r="L721">
         <v>3.2</v>
       </c>
-      <c r="L721">
-        <v>3.1</v>
-      </c>
       <c r="M721">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N721">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O721">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P721">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q721">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R721">
+        <v>1.825</v>
+      </c>
+      <c r="S721">
+        <v>1.975</v>
+      </c>
+      <c r="T721">
+        <v>2.5</v>
+      </c>
+      <c r="U721">
         <v>1.95</v>
       </c>
-      <c r="S721">
-        <v>1.85</v>
-      </c>
-      <c r="T721">
-        <v>2</v>
-      </c>
-      <c r="U721">
-        <v>1.9</v>
-      </c>
       <c r="V721">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W721">
         <v>-1</v>
       </c>
       <c r="X721">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y721">
         <v>-1</v>
       </c>
       <c r="Z721">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA721">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB721">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC721">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="722" spans="1:29">
@@ -65446,7 +65446,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>7894882</v>
+        <v>7754650</v>
       </c>
       <c r="C728" t="s">
         <v>28</v>
@@ -65458,76 +65458,76 @@
         <v>45351.70833333334</v>
       </c>
       <c r="F728" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G728" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="H728">
+        <v>1</v>
+      </c>
+      <c r="I728">
         <v>0</v>
       </c>
-      <c r="I728">
+      <c r="J728" t="s">
+        <v>118</v>
+      </c>
+      <c r="K728">
+        <v>2.4</v>
+      </c>
+      <c r="L728">
+        <v>2.875</v>
+      </c>
+      <c r="M728">
+        <v>2.875</v>
+      </c>
+      <c r="N728">
+        <v>1.95</v>
+      </c>
+      <c r="O728">
+        <v>3.2</v>
+      </c>
+      <c r="P728">
+        <v>3.5</v>
+      </c>
+      <c r="Q728">
+        <v>-0.5</v>
+      </c>
+      <c r="R728">
+        <v>2</v>
+      </c>
+      <c r="S728">
+        <v>1.8</v>
+      </c>
+      <c r="T728">
+        <v>1.75</v>
+      </c>
+      <c r="U728">
+        <v>1.775</v>
+      </c>
+      <c r="V728">
+        <v>2.025</v>
+      </c>
+      <c r="W728">
+        <v>0.95</v>
+      </c>
+      <c r="X728">
+        <v>-1</v>
+      </c>
+      <c r="Y728">
+        <v>-1</v>
+      </c>
+      <c r="Z728">
         <v>1</v>
       </c>
-      <c r="J728" t="s">
-        <v>119</v>
-      </c>
-      <c r="K728">
-        <v>1.8</v>
-      </c>
-      <c r="L728">
-        <v>3.6</v>
-      </c>
-      <c r="M728">
-        <v>3.6</v>
-      </c>
-      <c r="N728">
-        <v>2</v>
-      </c>
-      <c r="O728">
-        <v>3.4</v>
-      </c>
-      <c r="P728">
-        <v>3.2</v>
-      </c>
-      <c r="Q728">
-        <v>-0.25</v>
-      </c>
-      <c r="R728">
-        <v>1.8</v>
-      </c>
-      <c r="S728">
-        <v>2</v>
-      </c>
-      <c r="T728">
-        <v>2.5</v>
-      </c>
-      <c r="U728">
-        <v>1.95</v>
-      </c>
-      <c r="V728">
-        <v>1.75</v>
-      </c>
-      <c r="W728">
-        <v>-1</v>
-      </c>
-      <c r="X728">
-        <v>-1</v>
-      </c>
-      <c r="Y728">
-        <v>2.2</v>
-      </c>
-      <c r="Z728">
-        <v>-1</v>
-      </c>
       <c r="AA728">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB728">
         <v>-1</v>
       </c>
       <c r="AC728">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="729" spans="1:29">
@@ -65535,7 +65535,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>7888488</v>
+        <v>7894882</v>
       </c>
       <c r="C729" t="s">
         <v>28</v>
@@ -65547,40 +65547,40 @@
         <v>45351.70833333334</v>
       </c>
       <c r="F729" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="G729" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H729">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I729">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J729" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K729">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L729">
+        <v>3.6</v>
+      </c>
+      <c r="M729">
+        <v>3.6</v>
+      </c>
+      <c r="N729">
+        <v>2</v>
+      </c>
+      <c r="O729">
+        <v>3.4</v>
+      </c>
+      <c r="P729">
         <v>3.2</v>
       </c>
-      <c r="M729">
-        <v>2.5</v>
-      </c>
-      <c r="N729">
-        <v>2.375</v>
-      </c>
-      <c r="O729">
-        <v>3.2</v>
-      </c>
-      <c r="P729">
-        <v>2.625</v>
-      </c>
       <c r="Q729">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R729">
         <v>1.8</v>
@@ -65589,34 +65589,34 @@
         <v>2</v>
       </c>
       <c r="T729">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U729">
+        <v>1.95</v>
+      </c>
+      <c r="V729">
         <v>1.75</v>
       </c>
-      <c r="V729">
-        <v>1.95</v>
-      </c>
       <c r="W729">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X729">
         <v>-1</v>
       </c>
       <c r="Y729">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z729">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA729">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB729">
+        <v>-1</v>
+      </c>
+      <c r="AC729">
         <v>0.75</v>
-      </c>
-      <c r="AC729">
-        <v>-1</v>
       </c>
     </row>
     <row r="730" spans="1:29">
@@ -65713,7 +65713,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>7754650</v>
+        <v>7888488</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65725,13 +65725,13 @@
         <v>45351.70833333334</v>
       </c>
       <c r="F731" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="G731" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I731">
         <v>0</v>
@@ -65740,43 +65740,43 @@
         <v>118</v>
       </c>
       <c r="K731">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L731">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M731">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N731">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O731">
         <v>3.2</v>
       </c>
       <c r="P731">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q731">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R731">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S731">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T731">
+        <v>2.25</v>
+      </c>
+      <c r="U731">
         <v>1.75</v>
       </c>
-      <c r="U731">
-        <v>1.775</v>
-      </c>
       <c r="V731">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W731">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="X731">
         <v>-1</v>
@@ -65785,16 +65785,16 @@
         <v>-1</v>
       </c>
       <c r="Z731">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA731">
         <v>-1</v>
       </c>
       <c r="AB731">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC731">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -66158,7 +66158,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>7916876</v>
+        <v>7916873</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -66170,76 +66170,76 @@
         <v>45356.375</v>
       </c>
       <c r="F736" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G736" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H736">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I736">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J736" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K736">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L736">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M736">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N736">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O736">
         <v>3.3</v>
       </c>
       <c r="P736">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q736">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R736">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S736">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T736">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U736">
+        <v>1.95</v>
+      </c>
+      <c r="V736">
         <v>1.85</v>
       </c>
-      <c r="V736">
-        <v>1.95</v>
-      </c>
       <c r="W736">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X736">
         <v>-1</v>
       </c>
       <c r="Y736">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z736">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA736">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB736">
+        <v>-1</v>
+      </c>
+      <c r="AC736">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC736">
-        <v>-1</v>
       </c>
     </row>
     <row r="737" spans="1:29">
@@ -66247,7 +66247,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>7916874</v>
+        <v>7916883</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66259,76 +66259,76 @@
         <v>45356.375</v>
       </c>
       <c r="F737" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G737" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H737">
         <v>1</v>
       </c>
       <c r="I737">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J737" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K737">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L737">
         <v>3.2</v>
       </c>
       <c r="M737">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N737">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O737">
         <v>3.2</v>
       </c>
       <c r="P737">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q737">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R737">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S737">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T737">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U737">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V737">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W737">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X737">
         <v>-1</v>
       </c>
       <c r="Y737">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z737">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA737">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB737">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC737">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66336,7 +66336,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>7916883</v>
+        <v>7916874</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66348,76 +66348,76 @@
         <v>45356.375</v>
       </c>
       <c r="F738" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G738" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H738">
         <v>1</v>
       </c>
       <c r="I738">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J738" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K738">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L738">
         <v>3.2</v>
       </c>
       <c r="M738">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N738">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O738">
         <v>3.2</v>
       </c>
       <c r="P738">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q738">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R738">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S738">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T738">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U738">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V738">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W738">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z738">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA738">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB738">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC738">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66425,7 +66425,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>7916873</v>
+        <v>7916876</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66437,76 +66437,76 @@
         <v>45356.375</v>
       </c>
       <c r="F739" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G739" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I739">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J739" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K739">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L739">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M739">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N739">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O739">
         <v>3.3</v>
       </c>
       <c r="P739">
+        <v>3.6</v>
+      </c>
+      <c r="Q739">
+        <v>-0.5</v>
+      </c>
+      <c r="R739">
+        <v>1.9</v>
+      </c>
+      <c r="S739">
+        <v>1.9</v>
+      </c>
+      <c r="T739">
+        <v>2.5</v>
+      </c>
+      <c r="U739">
+        <v>1.85</v>
+      </c>
+      <c r="V739">
         <v>1.95</v>
       </c>
-      <c r="Q739">
-        <v>0.5</v>
-      </c>
-      <c r="R739">
-        <v>1.775</v>
-      </c>
-      <c r="S739">
-        <v>2.025</v>
-      </c>
-      <c r="T739">
-        <v>2.75</v>
-      </c>
-      <c r="U739">
-        <v>1.95</v>
-      </c>
-      <c r="V739">
-        <v>1.85</v>
-      </c>
       <c r="W739">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X739">
         <v>-1</v>
       </c>
       <c r="Y739">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z739">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA739">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB739">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC739">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -67849,7 +67849,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>7752743</v>
+        <v>7752618</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67861,13 +67861,13 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F755" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G755" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I755">
         <v>0</v>
@@ -67876,61 +67876,61 @@
         <v>118</v>
       </c>
       <c r="K755">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L755">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M755">
         <v>4.5</v>
       </c>
       <c r="N755">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O755">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P755">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q755">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R755">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S755">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T755">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U755">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V755">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W755">
+        <v>0.75</v>
+      </c>
+      <c r="X755">
+        <v>-1</v>
+      </c>
+      <c r="Y755">
+        <v>-1</v>
+      </c>
+      <c r="Z755">
+        <v>0.95</v>
+      </c>
+      <c r="AA755">
+        <v>-1</v>
+      </c>
+      <c r="AB755">
         <v>1</v>
       </c>
-      <c r="X755">
-        <v>-1</v>
-      </c>
-      <c r="Y755">
-        <v>-1</v>
-      </c>
-      <c r="Z755">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA755">
-        <v>-1</v>
-      </c>
-      <c r="AB755">
-        <v>-1</v>
-      </c>
       <c r="AC755">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67938,7 +67938,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>7752619</v>
+        <v>7752743</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67950,46 +67950,46 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F756" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="G756" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H756">
+        <v>1</v>
+      </c>
+      <c r="I756">
         <v>0</v>
       </c>
-      <c r="I756">
-        <v>2</v>
-      </c>
       <c r="J756" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K756">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L756">
+        <v>3.5</v>
+      </c>
+      <c r="M756">
+        <v>4.5</v>
+      </c>
+      <c r="N756">
+        <v>2</v>
+      </c>
+      <c r="O756">
         <v>3.2</v>
       </c>
-      <c r="M756">
-        <v>3.75</v>
-      </c>
-      <c r="N756">
-        <v>2</v>
-      </c>
-      <c r="O756">
-        <v>3.1</v>
-      </c>
       <c r="P756">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q756">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R756">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S756">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T756">
         <v>2</v>
@@ -68001,25 +68001,25 @@
         <v>2.025</v>
       </c>
       <c r="W756">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X756">
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z756">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA756">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB756">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC756">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -68027,7 +68027,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>7752618</v>
+        <v>7752619</v>
       </c>
       <c r="C757" t="s">
         <v>28</v>
@@ -68039,76 +68039,76 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F757" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G757" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="H757">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I757">
+        <v>2</v>
+      </c>
+      <c r="J757" t="s">
+        <v>119</v>
+      </c>
+      <c r="K757">
+        <v>1.909</v>
+      </c>
+      <c r="L757">
+        <v>3.2</v>
+      </c>
+      <c r="M757">
+        <v>3.75</v>
+      </c>
+      <c r="N757">
+        <v>2</v>
+      </c>
+      <c r="O757">
+        <v>3.1</v>
+      </c>
+      <c r="P757">
+        <v>3.5</v>
+      </c>
+      <c r="Q757">
+        <v>-0.5</v>
+      </c>
+      <c r="R757">
+        <v>2</v>
+      </c>
+      <c r="S757">
+        <v>1.8</v>
+      </c>
+      <c r="T757">
+        <v>2</v>
+      </c>
+      <c r="U757">
+        <v>1.775</v>
+      </c>
+      <c r="V757">
+        <v>2.025</v>
+      </c>
+      <c r="W757">
+        <v>-1</v>
+      </c>
+      <c r="X757">
+        <v>-1</v>
+      </c>
+      <c r="Y757">
+        <v>2.5</v>
+      </c>
+      <c r="Z757">
+        <v>-1</v>
+      </c>
+      <c r="AA757">
+        <v>0.8</v>
+      </c>
+      <c r="AB757">
         <v>0</v>
       </c>
-      <c r="J757" t="s">
-        <v>118</v>
-      </c>
-      <c r="K757">
-        <v>1.727</v>
-      </c>
-      <c r="L757">
-        <v>3.3</v>
-      </c>
-      <c r="M757">
-        <v>4.5</v>
-      </c>
-      <c r="N757">
-        <v>1.75</v>
-      </c>
-      <c r="O757">
-        <v>3.4</v>
-      </c>
-      <c r="P757">
-        <v>4.2</v>
-      </c>
-      <c r="Q757">
-        <v>-0.75</v>
-      </c>
-      <c r="R757">
-        <v>1.95</v>
-      </c>
-      <c r="S757">
-        <v>1.75</v>
-      </c>
-      <c r="T757">
-        <v>2.25</v>
-      </c>
-      <c r="U757">
-        <v>2</v>
-      </c>
-      <c r="V757">
-        <v>1.8</v>
-      </c>
-      <c r="W757">
-        <v>0.75</v>
-      </c>
-      <c r="X757">
-        <v>-1</v>
-      </c>
-      <c r="Y757">
-        <v>-1</v>
-      </c>
-      <c r="Z757">
-        <v>0.95</v>
-      </c>
-      <c r="AA757">
-        <v>-1</v>
-      </c>
-      <c r="AB757">
-        <v>1</v>
-      </c>
       <c r="AC757">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="758" spans="1:29">
@@ -68650,7 +68650,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>7752622</v>
+        <v>7752621</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68662,73 +68662,73 @@
         <v>45370.625</v>
       </c>
       <c r="F764" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="G764" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H764">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I764">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J764" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K764">
+        <v>2.375</v>
+      </c>
+      <c r="L764">
+        <v>3</v>
+      </c>
+      <c r="M764">
+        <v>2.8</v>
+      </c>
+      <c r="N764">
         <v>1.75</v>
       </c>
-      <c r="L764">
+      <c r="O764">
         <v>3.3</v>
       </c>
-      <c r="M764">
+      <c r="P764">
         <v>4.2</v>
       </c>
-      <c r="N764">
-        <v>2</v>
-      </c>
-      <c r="O764">
-        <v>3.1</v>
-      </c>
-      <c r="P764">
-        <v>3.4</v>
-      </c>
       <c r="Q764">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R764">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S764">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T764">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U764">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V764">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W764">
+        <v>-1</v>
+      </c>
+      <c r="X764">
+        <v>-1</v>
+      </c>
+      <c r="Y764">
+        <v>3.2</v>
+      </c>
+      <c r="Z764">
+        <v>-1</v>
+      </c>
+      <c r="AA764">
         <v>1</v>
       </c>
-      <c r="X764">
-        <v>-1</v>
-      </c>
-      <c r="Y764">
-        <v>-1</v>
-      </c>
-      <c r="Z764">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA764">
-        <v>-1</v>
-      </c>
       <c r="AB764">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC764">
         <v>-1</v>
@@ -68739,7 +68739,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>7752669</v>
+        <v>7752622</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68751,13 +68751,13 @@
         <v>45370.625</v>
       </c>
       <c r="F765" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G765" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I765">
         <v>0</v>
@@ -68766,43 +68766,43 @@
         <v>118</v>
       </c>
       <c r="K765">
+        <v>1.75</v>
+      </c>
+      <c r="L765">
+        <v>3.3</v>
+      </c>
+      <c r="M765">
+        <v>4.2</v>
+      </c>
+      <c r="N765">
+        <v>2</v>
+      </c>
+      <c r="O765">
         <v>3.1</v>
       </c>
-      <c r="L765">
-        <v>3</v>
-      </c>
-      <c r="M765">
-        <v>2.2</v>
-      </c>
-      <c r="N765">
-        <v>3.5</v>
-      </c>
-      <c r="O765">
-        <v>2.875</v>
-      </c>
       <c r="P765">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q765">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R765">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S765">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T765">
         <v>2</v>
       </c>
       <c r="U765">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V765">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W765">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="X765">
         <v>-1</v>
@@ -68811,16 +68811,16 @@
         <v>-1</v>
       </c>
       <c r="Z765">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA765">
         <v>-1</v>
       </c>
       <c r="AB765">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC765">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68828,7 +68828,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>7752621</v>
+        <v>7752669</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68840,76 +68840,76 @@
         <v>45370.625</v>
       </c>
       <c r="F766" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="G766" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I766">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J766" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K766">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L766">
         <v>3</v>
       </c>
       <c r="M766">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N766">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O766">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P766">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q766">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R766">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S766">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T766">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U766">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V766">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W766">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z766">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA766">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB766">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC766">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -69184,7 +69184,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>8012116</v>
+        <v>8012114</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69196,13 +69196,13 @@
         <v>45377.375</v>
       </c>
       <c r="F770" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G770" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="H770">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I770">
         <v>1</v>
@@ -69211,43 +69211,43 @@
         <v>118</v>
       </c>
       <c r="K770">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L770">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M770">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N770">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O770">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P770">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q770">
         <v>-0.5</v>
       </c>
       <c r="R770">
+        <v>2</v>
+      </c>
+      <c r="S770">
         <v>1.8</v>
       </c>
-      <c r="S770">
-        <v>2</v>
-      </c>
       <c r="T770">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U770">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V770">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W770">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X770">
         <v>-1</v>
@@ -69256,13 +69256,13 @@
         <v>-1</v>
       </c>
       <c r="Z770">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA770">
         <v>-1</v>
       </c>
       <c r="AB770">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC770">
         <v>-1</v>
@@ -69273,7 +69273,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>8012114</v>
+        <v>8012116</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69285,13 +69285,13 @@
         <v>45377.375</v>
       </c>
       <c r="F771" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G771" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H771">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I771">
         <v>1</v>
@@ -69300,58 +69300,58 @@
         <v>118</v>
       </c>
       <c r="K771">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L771">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M771">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N771">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O771">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P771">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q771">
         <v>-0.5</v>
       </c>
       <c r="R771">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S771">
+        <v>2</v>
+      </c>
+      <c r="T771">
+        <v>2.25</v>
+      </c>
+      <c r="U771">
+        <v>2</v>
+      </c>
+      <c r="V771">
         <v>1.8</v>
       </c>
-      <c r="T771">
-        <v>2</v>
-      </c>
-      <c r="U771">
-        <v>1.875</v>
-      </c>
-      <c r="V771">
-        <v>1.925</v>
-      </c>
       <c r="W771">
+        <v>0.8</v>
+      </c>
+      <c r="X771">
+        <v>-1</v>
+      </c>
+      <c r="Y771">
+        <v>-1</v>
+      </c>
+      <c r="Z771">
+        <v>0.8</v>
+      </c>
+      <c r="AA771">
+        <v>-1</v>
+      </c>
+      <c r="AB771">
         <v>1</v>
-      </c>
-      <c r="X771">
-        <v>-1</v>
-      </c>
-      <c r="Y771">
-        <v>-1</v>
-      </c>
-      <c r="Z771">
-        <v>1</v>
-      </c>
-      <c r="AA771">
-        <v>-1</v>
-      </c>
-      <c r="AB771">
-        <v>0.875</v>
       </c>
       <c r="AC771">
         <v>-1</v>
@@ -69985,7 +69985,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>8019204</v>
+        <v>8022409</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69997,40 +69997,40 @@
         <v>45379.64583333334</v>
       </c>
       <c r="F779" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G779" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="H779">
+        <v>0</v>
+      </c>
+      <c r="I779">
         <v>1</v>
       </c>
-      <c r="I779">
-        <v>0</v>
-      </c>
       <c r="J779" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K779">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L779">
         <v>3.4</v>
       </c>
       <c r="M779">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N779">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O779">
         <v>3.4</v>
       </c>
       <c r="P779">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q779">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R779">
         <v>1.8</v>
@@ -70042,31 +70042,31 @@
         <v>2.75</v>
       </c>
       <c r="U779">
+        <v>1.875</v>
+      </c>
+      <c r="V779">
         <v>1.925</v>
       </c>
-      <c r="V779">
-        <v>1.875</v>
-      </c>
       <c r="W779">
+        <v>-1</v>
+      </c>
+      <c r="X779">
+        <v>-1</v>
+      </c>
+      <c r="Y779">
+        <v>0.95</v>
+      </c>
+      <c r="Z779">
+        <v>-1</v>
+      </c>
+      <c r="AA779">
         <v>1</v>
       </c>
-      <c r="X779">
-        <v>-1</v>
-      </c>
-      <c r="Y779">
-        <v>-1</v>
-      </c>
-      <c r="Z779">
-        <v>0.8</v>
-      </c>
-      <c r="AA779">
-        <v>-1</v>
-      </c>
       <c r="AB779">
         <v>-1</v>
       </c>
       <c r="AC779">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -70074,7 +70074,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>8022409</v>
+        <v>8019204</v>
       </c>
       <c r="C780" t="s">
         <v>28</v>
@@ -70086,40 +70086,40 @@
         <v>45379.64583333334</v>
       </c>
       <c r="F780" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G780" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H780">
+        <v>1</v>
+      </c>
+      <c r="I780">
         <v>0</v>
       </c>
-      <c r="I780">
-        <v>1</v>
-      </c>
       <c r="J780" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K780">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="L780">
         <v>3.4</v>
       </c>
       <c r="M780">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N780">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O780">
         <v>3.4</v>
       </c>
       <c r="P780">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q780">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R780">
         <v>1.8</v>
@@ -70131,31 +70131,31 @@
         <v>2.75</v>
       </c>
       <c r="U780">
+        <v>1.925</v>
+      </c>
+      <c r="V780">
         <v>1.875</v>
       </c>
-      <c r="V780">
-        <v>1.925</v>
-      </c>
       <c r="W780">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X780">
         <v>-1</v>
       </c>
       <c r="Y780">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z780">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA780">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB780">
         <v>-1</v>
       </c>
       <c r="AC780">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="781" spans="1:29">

--- a/Argentina Reserve League/Argentina Reserve League.xlsx
+++ b/Argentina Reserve League/Argentina Reserve League.xlsx
@@ -60195,7 +60195,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>7505024</v>
+        <v>7505027</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60207,13 +60207,13 @@
         <v>45251.70833333334</v>
       </c>
       <c r="F669" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G669" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H669">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I669">
         <v>0</v>
@@ -60225,31 +60225,31 @@
         <v>1.8</v>
       </c>
       <c r="L669">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M669">
         <v>4</v>
       </c>
       <c r="N669">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="O669">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P669">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q669">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R669">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S669">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T669">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U669">
         <v>1.95</v>
@@ -60258,7 +60258,7 @@
         <v>1.85</v>
       </c>
       <c r="W669">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="X669">
         <v>-1</v>
@@ -60267,7 +60267,7 @@
         <v>-1</v>
       </c>
       <c r="Z669">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA669">
         <v>-1</v>
@@ -60284,7 +60284,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>7505026</v>
+        <v>7505024</v>
       </c>
       <c r="C670" t="s">
         <v>28</v>
@@ -60296,73 +60296,73 @@
         <v>45251.70833333334</v>
       </c>
       <c r="F670" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="G670" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I670">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J670" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K670">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L670">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M670">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N670">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="O670">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P670">
-        <v>1.65</v>
+        <v>11</v>
       </c>
       <c r="Q670">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R670">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S670">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T670">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U670">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V670">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W670">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X670">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y670">
         <v>-1</v>
       </c>
       <c r="Z670">
-        <v>0.5249999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA670">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB670">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC670">
         <v>-1</v>
@@ -60373,7 +60373,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>7505027</v>
+        <v>7505026</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60385,73 +60385,73 @@
         <v>45251.70833333334</v>
       </c>
       <c r="F671" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G671" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H671">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I671">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J671" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K671">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L671">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M671">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N671">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="O671">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P671">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="Q671">
+        <v>0.25</v>
+      </c>
+      <c r="R671">
+        <v>2.05</v>
+      </c>
+      <c r="S671">
+        <v>1.75</v>
+      </c>
+      <c r="T671">
+        <v>2.75</v>
+      </c>
+      <c r="U671">
+        <v>1.975</v>
+      </c>
+      <c r="V671">
+        <v>1.825</v>
+      </c>
+      <c r="W671">
+        <v>-1</v>
+      </c>
+      <c r="X671">
+        <v>2.4</v>
+      </c>
+      <c r="Y671">
+        <v>-1</v>
+      </c>
+      <c r="Z671">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA671">
         <v>-0.5</v>
       </c>
-      <c r="R671">
-        <v>1.85</v>
-      </c>
-      <c r="S671">
-        <v>1.95</v>
-      </c>
-      <c r="T671">
-        <v>2.25</v>
-      </c>
-      <c r="U671">
-        <v>1.95</v>
-      </c>
-      <c r="V671">
-        <v>1.85</v>
-      </c>
-      <c r="W671">
-        <v>0.8</v>
-      </c>
-      <c r="X671">
-        <v>-1</v>
-      </c>
-      <c r="Y671">
-        <v>-1</v>
-      </c>
-      <c r="Z671">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA671">
-        <v>-1</v>
-      </c>
       <c r="AB671">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC671">
         <v>-1</v>
@@ -62509,7 +62509,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>7754653</v>
+        <v>7752465</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62521,76 +62521,76 @@
         <v>45330.70833333334</v>
       </c>
       <c r="F695" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G695" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J695" t="s">
         <v>117</v>
       </c>
       <c r="K695">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="L695">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M695">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N695">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O695">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P695">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q695">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R695">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S695">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T695">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U695">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V695">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W695">
         <v>-1</v>
       </c>
       <c r="X695">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Y695">
         <v>-1</v>
       </c>
       <c r="Z695">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA695">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB695">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC695">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62598,7 +62598,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>7752465</v>
+        <v>7754653</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62610,76 +62610,76 @@
         <v>45330.70833333334</v>
       </c>
       <c r="F696" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G696" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J696" t="s">
         <v>117</v>
       </c>
       <c r="K696">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="L696">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M696">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N696">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O696">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P696">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q696">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R696">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S696">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T696">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U696">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V696">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W696">
         <v>-1</v>
       </c>
       <c r="X696">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Y696">
         <v>-1</v>
       </c>
       <c r="Z696">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA696">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB696">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC696">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="697" spans="1:29">
@@ -62776,7 +62776,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>7752662</v>
+        <v>7752610</v>
       </c>
       <c r="C698" t="s">
         <v>28</v>
@@ -62788,76 +62788,76 @@
         <v>45343.70833333334</v>
       </c>
       <c r="F698" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G698" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="H698">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I698">
+        <v>2</v>
+      </c>
+      <c r="J698" t="s">
+        <v>119</v>
+      </c>
+      <c r="K698">
+        <v>2.1</v>
+      </c>
+      <c r="L698">
+        <v>3</v>
+      </c>
+      <c r="M698">
+        <v>3.3</v>
+      </c>
+      <c r="N698">
+        <v>2.1</v>
+      </c>
+      <c r="O698">
+        <v>3</v>
+      </c>
+      <c r="P698">
+        <v>3.3</v>
+      </c>
+      <c r="Q698">
+        <v>-0.25</v>
+      </c>
+      <c r="R698">
+        <v>1.8</v>
+      </c>
+      <c r="S698">
+        <v>2</v>
+      </c>
+      <c r="T698">
+        <v>2</v>
+      </c>
+      <c r="U698">
+        <v>1.95</v>
+      </c>
+      <c r="V698">
+        <v>1.85</v>
+      </c>
+      <c r="W698">
+        <v>-1</v>
+      </c>
+      <c r="X698">
+        <v>-1</v>
+      </c>
+      <c r="Y698">
+        <v>2.3</v>
+      </c>
+      <c r="Z698">
+        <v>-1</v>
+      </c>
+      <c r="AA698">
         <v>1</v>
       </c>
-      <c r="J698" t="s">
-        <v>118</v>
-      </c>
-      <c r="K698">
-        <v>1.909</v>
-      </c>
-      <c r="L698">
-        <v>3.1</v>
-      </c>
-      <c r="M698">
-        <v>4</v>
-      </c>
-      <c r="N698">
-        <v>1.909</v>
-      </c>
-      <c r="O698">
-        <v>3.1</v>
-      </c>
-      <c r="P698">
-        <v>4.2</v>
-      </c>
-      <c r="Q698">
-        <v>-0.5</v>
-      </c>
-      <c r="R698">
-        <v>1.95</v>
-      </c>
-      <c r="S698">
-        <v>1.85</v>
-      </c>
-      <c r="T698">
-        <v>2</v>
-      </c>
-      <c r="U698">
-        <v>1.8</v>
-      </c>
-      <c r="V698">
-        <v>2</v>
-      </c>
-      <c r="W698">
-        <v>0.909</v>
-      </c>
-      <c r="X698">
-        <v>-1</v>
-      </c>
-      <c r="Y698">
-        <v>-1</v>
-      </c>
-      <c r="Z698">
-        <v>0.95</v>
-      </c>
-      <c r="AA698">
-        <v>-1</v>
-      </c>
       <c r="AB698">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC698">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="699" spans="1:29">
@@ -62865,7 +62865,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>7752610</v>
+        <v>7754651</v>
       </c>
       <c r="C699" t="s">
         <v>28</v>
@@ -62877,76 +62877,76 @@
         <v>45343.70833333334</v>
       </c>
       <c r="F699" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G699" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H699">
+        <v>1</v>
+      </c>
+      <c r="I699">
         <v>0</v>
       </c>
-      <c r="I699">
-        <v>2</v>
-      </c>
       <c r="J699" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K699">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L699">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M699">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N699">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O699">
         <v>3</v>
       </c>
       <c r="P699">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q699">
         <v>-0.25</v>
       </c>
       <c r="R699">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S699">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T699">
         <v>2</v>
       </c>
       <c r="U699">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V699">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W699">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X699">
         <v>-1</v>
       </c>
       <c r="Y699">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z699">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA699">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB699">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC699">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="700" spans="1:29">
@@ -62954,7 +62954,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>7754651</v>
+        <v>7752662</v>
       </c>
       <c r="C700" t="s">
         <v>28</v>
@@ -62966,58 +62966,58 @@
         <v>45343.70833333334</v>
       </c>
       <c r="F700" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G700" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="H700">
+        <v>4</v>
+      </c>
+      <c r="I700">
         <v>1</v>
-      </c>
-      <c r="I700">
-        <v>0</v>
       </c>
       <c r="J700" t="s">
         <v>118</v>
       </c>
       <c r="K700">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L700">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M700">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N700">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O700">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P700">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q700">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R700">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S700">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T700">
         <v>2</v>
       </c>
       <c r="U700">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V700">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W700">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X700">
         <v>-1</v>
@@ -63026,16 +63026,16 @@
         <v>-1</v>
       </c>
       <c r="Z700">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA700">
         <v>-1</v>
       </c>
       <c r="AB700">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC700">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="701" spans="1:29">
@@ -63310,7 +63310,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>7752733</v>
+        <v>7866971</v>
       </c>
       <c r="C704" t="s">
         <v>28</v>
@@ -63322,16 +63322,16 @@
         <v>45344.70833333334</v>
       </c>
       <c r="F704" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G704" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I704">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J704" t="s">
         <v>118</v>
@@ -63340,40 +63340,40 @@
         <v>1.571</v>
       </c>
       <c r="L704">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M704">
-        <v>5.25</v>
+        <v>4.8</v>
       </c>
       <c r="N704">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O704">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P704">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q704">
         <v>-0.75</v>
       </c>
       <c r="R704">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S704">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T704">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U704">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V704">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W704">
-        <v>0.7270000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X704">
         <v>-1</v>
@@ -63382,13 +63382,13 @@
         <v>-1</v>
       </c>
       <c r="Z704">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA704">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB704">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC704">
         <v>-1</v>
@@ -63399,7 +63399,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>7866971</v>
+        <v>7752733</v>
       </c>
       <c r="C705" t="s">
         <v>28</v>
@@ -63411,16 +63411,16 @@
         <v>45344.70833333334</v>
       </c>
       <c r="F705" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G705" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H705">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I705">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J705" t="s">
         <v>118</v>
@@ -63429,40 +63429,40 @@
         <v>1.571</v>
       </c>
       <c r="L705">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M705">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="N705">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O705">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P705">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q705">
         <v>-0.75</v>
       </c>
       <c r="R705">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S705">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T705">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U705">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V705">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W705">
-        <v>0.6499999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X705">
         <v>-1</v>
@@ -63471,13 +63471,13 @@
         <v>-1</v>
       </c>
       <c r="Z705">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA705">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB705">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC705">
         <v>-1</v>
@@ -63488,7 +63488,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>7752703</v>
+        <v>7752609</v>
       </c>
       <c r="C706" t="s">
         <v>28</v>
@@ -63500,10 +63500,10 @@
         <v>45344.70833333334</v>
       </c>
       <c r="F706" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="G706" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="H706">
         <v>0</v>
@@ -63515,41 +63515,41 @@
         <v>119</v>
       </c>
       <c r="K706">
+        <v>1.8</v>
+      </c>
+      <c r="L706">
+        <v>3.25</v>
+      </c>
+      <c r="M706">
+        <v>4</v>
+      </c>
+      <c r="N706">
+        <v>1.85</v>
+      </c>
+      <c r="O706">
+        <v>3.3</v>
+      </c>
+      <c r="P706">
+        <v>3.6</v>
+      </c>
+      <c r="Q706">
+        <v>-0.5</v>
+      </c>
+      <c r="R706">
+        <v>1.95</v>
+      </c>
+      <c r="S706">
+        <v>1.85</v>
+      </c>
+      <c r="T706">
+        <v>2.25</v>
+      </c>
+      <c r="U706">
         <v>2.05</v>
       </c>
-      <c r="L706">
-        <v>3</v>
-      </c>
-      <c r="M706">
-        <v>3.4</v>
-      </c>
-      <c r="N706">
-        <v>2.25</v>
-      </c>
-      <c r="O706">
-        <v>3</v>
-      </c>
-      <c r="P706">
-        <v>3</v>
-      </c>
-      <c r="Q706">
-        <v>-0.25</v>
-      </c>
-      <c r="R706">
-        <v>2.05</v>
-      </c>
-      <c r="S706">
+      <c r="V706">
         <v>1.75</v>
       </c>
-      <c r="T706">
-        <v>2</v>
-      </c>
-      <c r="U706">
-        <v>2</v>
-      </c>
-      <c r="V706">
-        <v>1.8</v>
-      </c>
       <c r="W706">
         <v>-1</v>
       </c>
@@ -63557,19 +63557,19 @@
         <v>-1</v>
       </c>
       <c r="Y706">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z706">
         <v>-1</v>
       </c>
       <c r="AA706">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB706">
+        <v>-1</v>
+      </c>
+      <c r="AC706">
         <v>0.75</v>
-      </c>
-      <c r="AB706">
-        <v>-1</v>
-      </c>
-      <c r="AC706">
-        <v>0.8</v>
       </c>
     </row>
     <row r="707" spans="1:29">
@@ -63577,7 +63577,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>7752609</v>
+        <v>7752703</v>
       </c>
       <c r="C707" t="s">
         <v>28</v>
@@ -63589,10 +63589,10 @@
         <v>45344.70833333334</v>
       </c>
       <c r="F707" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="G707" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H707">
         <v>0</v>
@@ -63604,41 +63604,41 @@
         <v>119</v>
       </c>
       <c r="K707">
+        <v>2.05</v>
+      </c>
+      <c r="L707">
+        <v>3</v>
+      </c>
+      <c r="M707">
+        <v>3.4</v>
+      </c>
+      <c r="N707">
+        <v>2.25</v>
+      </c>
+      <c r="O707">
+        <v>3</v>
+      </c>
+      <c r="P707">
+        <v>3</v>
+      </c>
+      <c r="Q707">
+        <v>-0.25</v>
+      </c>
+      <c r="R707">
+        <v>2.05</v>
+      </c>
+      <c r="S707">
+        <v>1.75</v>
+      </c>
+      <c r="T707">
+        <v>2</v>
+      </c>
+      <c r="U707">
+        <v>2</v>
+      </c>
+      <c r="V707">
         <v>1.8</v>
       </c>
-      <c r="L707">
-        <v>3.25</v>
-      </c>
-      <c r="M707">
-        <v>4</v>
-      </c>
-      <c r="N707">
-        <v>1.85</v>
-      </c>
-      <c r="O707">
-        <v>3.3</v>
-      </c>
-      <c r="P707">
-        <v>3.6</v>
-      </c>
-      <c r="Q707">
-        <v>-0.5</v>
-      </c>
-      <c r="R707">
-        <v>1.95</v>
-      </c>
-      <c r="S707">
-        <v>1.85</v>
-      </c>
-      <c r="T707">
-        <v>2.25</v>
-      </c>
-      <c r="U707">
-        <v>2.05</v>
-      </c>
-      <c r="V707">
-        <v>1.75</v>
-      </c>
       <c r="W707">
         <v>-1</v>
       </c>
@@ -63646,19 +63646,19 @@
         <v>-1</v>
       </c>
       <c r="Y707">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z707">
         <v>-1</v>
       </c>
       <c r="AA707">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB707">
         <v>-1</v>
       </c>
       <c r="AC707">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="708" spans="1:29">
@@ -64022,7 +64022,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>7752705</v>
+        <v>7888487</v>
       </c>
       <c r="C712" t="s">
         <v>28</v>
@@ -64034,76 +64034,76 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F712" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G712" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I712">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J712" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K712">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L712">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M712">
+        <v>4</v>
+      </c>
+      <c r="N712">
+        <v>1.909</v>
+      </c>
+      <c r="O712">
         <v>2.9</v>
       </c>
-      <c r="N712">
-        <v>1.727</v>
-      </c>
-      <c r="O712">
-        <v>3.3</v>
-      </c>
       <c r="P712">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q712">
         <v>-0.5</v>
       </c>
       <c r="R712">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S712">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T712">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U712">
         <v>1.975</v>
       </c>
       <c r="V712">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W712">
         <v>-1</v>
       </c>
       <c r="X712">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y712">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z712">
         <v>-1</v>
       </c>
       <c r="AA712">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB712">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC712">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="713" spans="1:29">
@@ -64111,7 +64111,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>7888487</v>
+        <v>7752705</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -64123,76 +64123,76 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F713" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G713" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713">
+        <v>0</v>
+      </c>
+      <c r="J713" t="s">
+        <v>117</v>
+      </c>
+      <c r="K713">
+        <v>2.375</v>
+      </c>
+      <c r="L713">
         <v>3</v>
       </c>
-      <c r="J713" t="s">
-        <v>119</v>
-      </c>
-      <c r="K713">
-        <v>1.909</v>
-      </c>
-      <c r="L713">
+      <c r="M713">
         <v>2.9</v>
       </c>
-      <c r="M713">
-        <v>4</v>
-      </c>
       <c r="N713">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O713">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P713">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q713">
         <v>-0.5</v>
       </c>
       <c r="R713">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S713">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T713">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U713">
         <v>1.975</v>
       </c>
       <c r="V713">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W713">
         <v>-1</v>
       </c>
       <c r="X713">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y713">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z713">
         <v>-1</v>
       </c>
       <c r="AA713">
+        <v>1.025</v>
+      </c>
+      <c r="AB713">
+        <v>-1</v>
+      </c>
+      <c r="AC713">
         <v>0.825</v>
-      </c>
-      <c r="AB713">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC713">
-        <v>-1</v>
       </c>
     </row>
     <row r="714" spans="1:29">
@@ -64200,7 +64200,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>7888484</v>
+        <v>7752738</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64212,10 +64212,10 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F714" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G714" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H714">
         <v>0</v>
@@ -64227,40 +64227,40 @@
         <v>119</v>
       </c>
       <c r="K714">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L714">
         <v>3</v>
       </c>
       <c r="M714">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N714">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="O714">
         <v>3</v>
       </c>
       <c r="P714">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q714">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R714">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S714">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T714">
         <v>2</v>
       </c>
       <c r="U714">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V714">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W714">
         <v>-1</v>
@@ -64269,19 +64269,19 @@
         <v>-1</v>
       </c>
       <c r="Y714">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="Z714">
         <v>-1</v>
       </c>
       <c r="AA714">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB714">
         <v>-1</v>
       </c>
       <c r="AC714">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64378,7 +64378,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>7752738</v>
+        <v>7888484</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64390,10 +64390,10 @@
         <v>45349.70833333334</v>
       </c>
       <c r="F716" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G716" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H716">
         <v>0</v>
@@ -64405,40 +64405,40 @@
         <v>119</v>
       </c>
       <c r="K716">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L716">
         <v>3</v>
       </c>
       <c r="M716">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N716">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="O716">
         <v>3</v>
       </c>
       <c r="P716">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q716">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R716">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S716">
+        <v>1.775</v>
+      </c>
+      <c r="T716">
+        <v>2</v>
+      </c>
+      <c r="U716">
         <v>1.8</v>
       </c>
-      <c r="T716">
-        <v>2</v>
-      </c>
-      <c r="U716">
-        <v>1.825</v>
-      </c>
       <c r="V716">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W716">
         <v>-1</v>
@@ -64447,19 +64447,19 @@
         <v>-1</v>
       </c>
       <c r="Y716">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="Z716">
         <v>-1</v>
       </c>
       <c r="AA716">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB716">
         <v>-1</v>
       </c>
       <c r="AC716">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64645,7 +64645,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>7888412</v>
+        <v>7888489</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64657,10 +64657,10 @@
         <v>45350.375</v>
       </c>
       <c r="F719" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G719" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="H719">
         <v>1</v>
@@ -64672,61 +64672,61 @@
         <v>117</v>
       </c>
       <c r="K719">
+        <v>1.8</v>
+      </c>
+      <c r="L719">
         <v>3.2</v>
       </c>
-      <c r="L719">
-        <v>3.1</v>
-      </c>
       <c r="M719">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N719">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O719">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P719">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q719">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R719">
+        <v>1.825</v>
+      </c>
+      <c r="S719">
+        <v>1.975</v>
+      </c>
+      <c r="T719">
+        <v>2.5</v>
+      </c>
+      <c r="U719">
         <v>1.95</v>
       </c>
-      <c r="S719">
-        <v>1.85</v>
-      </c>
-      <c r="T719">
-        <v>2</v>
-      </c>
-      <c r="U719">
-        <v>1.9</v>
-      </c>
       <c r="V719">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W719">
         <v>-1</v>
       </c>
       <c r="X719">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA719">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB719">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC719">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64823,7 +64823,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>7888489</v>
+        <v>7888412</v>
       </c>
       <c r="C721" t="s">
         <v>28</v>
@@ -64835,10 +64835,10 @@
         <v>45350.375</v>
       </c>
       <c r="F721" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="G721" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H721">
         <v>1</v>
@@ -64850,61 +64850,61 @@
         <v>117</v>
       </c>
       <c r="K721">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L721">
+        <v>3.1</v>
+      </c>
+      <c r="M721">
+        <v>2.1</v>
+      </c>
+      <c r="N721">
         <v>3.2</v>
       </c>
-      <c r="M721">
-        <v>4</v>
-      </c>
-      <c r="N721">
-        <v>1.8</v>
-      </c>
       <c r="O721">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P721">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q721">
+        <v>0.25</v>
+      </c>
+      <c r="R721">
+        <v>1.95</v>
+      </c>
+      <c r="S721">
+        <v>1.85</v>
+      </c>
+      <c r="T721">
+        <v>2</v>
+      </c>
+      <c r="U721">
+        <v>1.9</v>
+      </c>
+      <c r="V721">
+        <v>1.9</v>
+      </c>
+      <c r="W721">
+        <v>-1</v>
+      </c>
+      <c r="X721">
+        <v>2.1</v>
+      </c>
+      <c r="Y721">
+        <v>-1</v>
+      </c>
+      <c r="Z721">
+        <v>0.475</v>
+      </c>
+      <c r="AA721">
         <v>-0.5</v>
       </c>
-      <c r="R721">
-        <v>1.825</v>
-      </c>
-      <c r="S721">
-        <v>1.975</v>
-      </c>
-      <c r="T721">
-        <v>2.5</v>
-      </c>
-      <c r="U721">
-        <v>1.95</v>
-      </c>
-      <c r="V721">
-        <v>1.75</v>
-      </c>
-      <c r="W721">
-        <v>-1</v>
-      </c>
-      <c r="X721">
-        <v>2.75</v>
-      </c>
-      <c r="Y721">
-        <v>-1</v>
-      </c>
-      <c r="Z721">
-        <v>-1</v>
-      </c>
-      <c r="AA721">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB721">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC721">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="722" spans="1:29">
@@ -65446,7 +65446,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>7754650</v>
+        <v>7894882</v>
       </c>
       <c r="C728" t="s">
         <v>28</v>
@@ -65458,76 +65458,76 @@
         <v>45351.70833333334</v>
       </c>
       <c r="F728" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G728" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="H728">
+        <v>0</v>
+      </c>
+      <c r="I728">
         <v>1</v>
       </c>
-      <c r="I728">
-        <v>0</v>
-      </c>
       <c r="J728" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K728">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L728">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M728">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N728">
+        <v>2</v>
+      </c>
+      <c r="O728">
+        <v>3.4</v>
+      </c>
+      <c r="P728">
+        <v>3.2</v>
+      </c>
+      <c r="Q728">
+        <v>-0.25</v>
+      </c>
+      <c r="R728">
+        <v>1.8</v>
+      </c>
+      <c r="S728">
+        <v>2</v>
+      </c>
+      <c r="T728">
+        <v>2.5</v>
+      </c>
+      <c r="U728">
         <v>1.95</v>
       </c>
-      <c r="O728">
-        <v>3.2</v>
-      </c>
-      <c r="P728">
-        <v>3.5</v>
-      </c>
-      <c r="Q728">
-        <v>-0.5</v>
-      </c>
-      <c r="R728">
-        <v>2</v>
-      </c>
-      <c r="S728">
-        <v>1.8</v>
-      </c>
-      <c r="T728">
+      <c r="V728">
         <v>1.75</v>
       </c>
-      <c r="U728">
-        <v>1.775</v>
-      </c>
-      <c r="V728">
-        <v>2.025</v>
-      </c>
       <c r="W728">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X728">
         <v>-1</v>
       </c>
       <c r="Y728">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z728">
+        <v>-1</v>
+      </c>
+      <c r="AA728">
         <v>1</v>
       </c>
-      <c r="AA728">
-        <v>-1</v>
-      </c>
       <c r="AB728">
         <v>-1</v>
       </c>
       <c r="AC728">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="729" spans="1:29">
@@ -65535,7 +65535,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>7894882</v>
+        <v>7888488</v>
       </c>
       <c r="C729" t="s">
         <v>28</v>
@@ -65547,40 +65547,40 @@
         <v>45351.70833333334</v>
       </c>
       <c r="F729" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G729" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H729">
+        <v>3</v>
+      </c>
+      <c r="I729">
         <v>0</v>
       </c>
-      <c r="I729">
-        <v>1</v>
-      </c>
       <c r="J729" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K729">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L729">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M729">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N729">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O729">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P729">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q729">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R729">
         <v>1.8</v>
@@ -65589,34 +65589,34 @@
         <v>2</v>
       </c>
       <c r="T729">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U729">
+        <v>1.75</v>
+      </c>
+      <c r="V729">
         <v>1.95</v>
       </c>
-      <c r="V729">
-        <v>1.75</v>
-      </c>
       <c r="W729">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X729">
         <v>-1</v>
       </c>
       <c r="Y729">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z729">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA729">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB729">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC729">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="730" spans="1:29">
@@ -65713,7 +65713,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>7888488</v>
+        <v>7754650</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65725,13 +65725,13 @@
         <v>45351.70833333334</v>
       </c>
       <c r="F731" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="G731" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H731">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I731">
         <v>0</v>
@@ -65740,43 +65740,43 @@
         <v>118</v>
       </c>
       <c r="K731">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L731">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M731">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N731">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O731">
         <v>3.2</v>
       </c>
       <c r="P731">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q731">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R731">
+        <v>2</v>
+      </c>
+      <c r="S731">
         <v>1.8</v>
       </c>
-      <c r="S731">
-        <v>2</v>
-      </c>
       <c r="T731">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U731">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V731">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W731">
-        <v>1.375</v>
+        <v>0.95</v>
       </c>
       <c r="X731">
         <v>-1</v>
@@ -65785,16 +65785,16 @@
         <v>-1</v>
       </c>
       <c r="Z731">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA731">
         <v>-1</v>
       </c>
       <c r="AB731">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC731">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -66158,7 +66158,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>7916873</v>
+        <v>7916876</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -66170,76 +66170,76 @@
         <v>45356.375</v>
       </c>
       <c r="F736" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G736" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I736">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J736" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K736">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L736">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M736">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N736">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O736">
         <v>3.3</v>
       </c>
       <c r="P736">
+        <v>3.6</v>
+      </c>
+      <c r="Q736">
+        <v>-0.5</v>
+      </c>
+      <c r="R736">
+        <v>1.9</v>
+      </c>
+      <c r="S736">
+        <v>1.9</v>
+      </c>
+      <c r="T736">
+        <v>2.5</v>
+      </c>
+      <c r="U736">
+        <v>1.85</v>
+      </c>
+      <c r="V736">
         <v>1.95</v>
       </c>
-      <c r="Q736">
-        <v>0.5</v>
-      </c>
-      <c r="R736">
-        <v>1.775</v>
-      </c>
-      <c r="S736">
-        <v>2.025</v>
-      </c>
-      <c r="T736">
-        <v>2.75</v>
-      </c>
-      <c r="U736">
-        <v>1.95</v>
-      </c>
-      <c r="V736">
-        <v>1.85</v>
-      </c>
       <c r="W736">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X736">
         <v>-1</v>
       </c>
       <c r="Y736">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z736">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA736">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB736">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC736">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="737" spans="1:29">
@@ -66247,7 +66247,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>7916883</v>
+        <v>7916874</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66259,76 +66259,76 @@
         <v>45356.375</v>
       </c>
       <c r="F737" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G737" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H737">
         <v>1</v>
       </c>
       <c r="I737">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J737" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K737">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L737">
         <v>3.2</v>
       </c>
       <c r="M737">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N737">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O737">
         <v>3.2</v>
       </c>
       <c r="P737">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q737">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R737">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S737">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T737">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U737">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V737">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W737">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X737">
         <v>-1</v>
       </c>
       <c r="Y737">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z737">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA737">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB737">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC737">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66336,7 +66336,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>7916874</v>
+        <v>7916883</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66348,76 +66348,76 @@
         <v>45356.375</v>
       </c>
       <c r="F738" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G738" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H738">
         <v>1</v>
       </c>
       <c r="I738">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J738" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K738">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L738">
         <v>3.2</v>
       </c>
       <c r="M738">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N738">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O738">
         <v>3.2</v>
       </c>
       <c r="P738">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q738">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R738">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S738">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T738">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U738">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="V738">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W738">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z738">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA738">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB738">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC738">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66425,7 +66425,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>7916876</v>
+        <v>7916873</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66437,76 +66437,76 @@
         <v>45356.375</v>
       </c>
       <c r="F739" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G739" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H739">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J739" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K739">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L739">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M739">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N739">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O739">
         <v>3.3</v>
       </c>
       <c r="P739">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q739">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R739">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S739">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T739">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U739">
+        <v>1.95</v>
+      </c>
+      <c r="V739">
         <v>1.85</v>
       </c>
-      <c r="V739">
-        <v>1.95</v>
-      </c>
       <c r="W739">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X739">
         <v>-1</v>
       </c>
       <c r="Y739">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z739">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA739">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB739">
+        <v>-1</v>
+      </c>
+      <c r="AC739">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC739">
-        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -67849,7 +67849,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>7752618</v>
+        <v>7752743</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67861,13 +67861,13 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F755" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G755" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="H755">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I755">
         <v>0</v>
@@ -67876,43 +67876,43 @@
         <v>118</v>
       </c>
       <c r="K755">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L755">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M755">
         <v>4.5</v>
       </c>
       <c r="N755">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O755">
+        <v>3.2</v>
+      </c>
+      <c r="P755">
         <v>3.4</v>
       </c>
-      <c r="P755">
-        <v>4.2</v>
-      </c>
       <c r="Q755">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R755">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S755">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T755">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U755">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V755">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W755">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X755">
         <v>-1</v>
@@ -67921,16 +67921,16 @@
         <v>-1</v>
       </c>
       <c r="Z755">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA755">
         <v>-1</v>
       </c>
       <c r="AB755">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC755">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="756" spans="1:29">
@@ -67938,7 +67938,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>7752743</v>
+        <v>7752619</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67950,46 +67950,46 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F756" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G756" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J756" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K756">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L756">
+        <v>3.2</v>
+      </c>
+      <c r="M756">
+        <v>3.75</v>
+      </c>
+      <c r="N756">
+        <v>2</v>
+      </c>
+      <c r="O756">
+        <v>3.1</v>
+      </c>
+      <c r="P756">
         <v>3.5</v>
       </c>
-      <c r="M756">
-        <v>4.5</v>
-      </c>
-      <c r="N756">
-        <v>2</v>
-      </c>
-      <c r="O756">
-        <v>3.2</v>
-      </c>
-      <c r="P756">
-        <v>3.4</v>
-      </c>
       <c r="Q756">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R756">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S756">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T756">
         <v>2</v>
@@ -68001,25 +68001,25 @@
         <v>2.025</v>
       </c>
       <c r="W756">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X756">
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z756">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA756">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB756">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC756">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="757" spans="1:29">
@@ -68027,7 +68027,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>7752619</v>
+        <v>7752618</v>
       </c>
       <c r="C757" t="s">
         <v>28</v>
@@ -68039,76 +68039,76 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F757" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="G757" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H757">
+        <v>4</v>
+      </c>
+      <c r="I757">
         <v>0</v>
       </c>
-      <c r="I757">
-        <v>2</v>
-      </c>
       <c r="J757" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K757">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L757">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M757">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N757">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O757">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P757">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q757">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R757">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S757">
+        <v>1.75</v>
+      </c>
+      <c r="T757">
+        <v>2.25</v>
+      </c>
+      <c r="U757">
+        <v>2</v>
+      </c>
+      <c r="V757">
         <v>1.8</v>
       </c>
-      <c r="T757">
-        <v>2</v>
-      </c>
-      <c r="U757">
-        <v>1.775</v>
-      </c>
-      <c r="V757">
-        <v>2.025</v>
-      </c>
       <c r="W757">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X757">
         <v>-1</v>
       </c>
       <c r="Y757">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z757">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA757">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB757">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC757">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="758" spans="1:29">
@@ -68650,7 +68650,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>7752621</v>
+        <v>7752622</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68662,73 +68662,73 @@
         <v>45370.625</v>
       </c>
       <c r="F764" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G764" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H764">
+        <v>4</v>
+      </c>
+      <c r="I764">
+        <v>0</v>
+      </c>
+      <c r="J764" t="s">
+        <v>118</v>
+      </c>
+      <c r="K764">
+        <v>1.75</v>
+      </c>
+      <c r="L764">
+        <v>3.3</v>
+      </c>
+      <c r="M764">
+        <v>4.2</v>
+      </c>
+      <c r="N764">
+        <v>2</v>
+      </c>
+      <c r="O764">
+        <v>3.1</v>
+      </c>
+      <c r="P764">
+        <v>3.4</v>
+      </c>
+      <c r="Q764">
+        <v>-0.25</v>
+      </c>
+      <c r="R764">
+        <v>1.775</v>
+      </c>
+      <c r="S764">
+        <v>2.025</v>
+      </c>
+      <c r="T764">
+        <v>2</v>
+      </c>
+      <c r="U764">
+        <v>1.8</v>
+      </c>
+      <c r="V764">
+        <v>2</v>
+      </c>
+      <c r="W764">
         <v>1</v>
       </c>
-      <c r="I764">
-        <v>2</v>
-      </c>
-      <c r="J764" t="s">
-        <v>119</v>
-      </c>
-      <c r="K764">
-        <v>2.375</v>
-      </c>
-      <c r="L764">
-        <v>3</v>
-      </c>
-      <c r="M764">
-        <v>2.8</v>
-      </c>
-      <c r="N764">
-        <v>1.75</v>
-      </c>
-      <c r="O764">
-        <v>3.3</v>
-      </c>
-      <c r="P764">
-        <v>4.2</v>
-      </c>
-      <c r="Q764">
-        <v>-0.5</v>
-      </c>
-      <c r="R764">
-        <v>1.8</v>
-      </c>
-      <c r="S764">
-        <v>2</v>
-      </c>
-      <c r="T764">
-        <v>2.25</v>
-      </c>
-      <c r="U764">
-        <v>1.975</v>
-      </c>
-      <c r="V764">
-        <v>1.725</v>
-      </c>
-      <c r="W764">
-        <v>-1</v>
-      </c>
       <c r="X764">
         <v>-1</v>
       </c>
       <c r="Y764">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z764">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA764">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB764">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC764">
         <v>-1</v>
@@ -68739,7 +68739,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>7752622</v>
+        <v>7752669</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68751,13 +68751,13 @@
         <v>45370.625</v>
       </c>
       <c r="F765" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G765" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="H765">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I765">
         <v>0</v>
@@ -68766,43 +68766,43 @@
         <v>118</v>
       </c>
       <c r="K765">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L765">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M765">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N765">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O765">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P765">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q765">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R765">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S765">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T765">
         <v>2</v>
       </c>
       <c r="U765">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V765">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W765">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="X765">
         <v>-1</v>
@@ -68811,16 +68811,16 @@
         <v>-1</v>
       </c>
       <c r="Z765">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA765">
         <v>-1</v>
       </c>
       <c r="AB765">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC765">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68828,7 +68828,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>7752669</v>
+        <v>7752621</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68840,76 +68840,76 @@
         <v>45370.625</v>
       </c>
       <c r="F766" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G766" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J766" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K766">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L766">
         <v>3</v>
       </c>
       <c r="M766">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N766">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O766">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P766">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q766">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R766">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S766">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T766">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U766">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V766">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="W766">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z766">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA766">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB766">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC766">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -69184,7 +69184,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>8012114</v>
+        <v>8012116</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69196,13 +69196,13 @@
         <v>45377.375</v>
       </c>
       <c r="F770" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G770" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H770">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I770">
         <v>1</v>
@@ -69211,58 +69211,58 @@
         <v>118</v>
       </c>
       <c r="K770">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L770">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M770">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N770">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O770">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P770">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q770">
         <v>-0.5</v>
       </c>
       <c r="R770">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S770">
+        <v>2</v>
+      </c>
+      <c r="T770">
+        <v>2.25</v>
+      </c>
+      <c r="U770">
+        <v>2</v>
+      </c>
+      <c r="V770">
         <v>1.8</v>
       </c>
-      <c r="T770">
-        <v>2</v>
-      </c>
-      <c r="U770">
-        <v>1.875</v>
-      </c>
-      <c r="V770">
-        <v>1.925</v>
-      </c>
       <c r="W770">
+        <v>0.8</v>
+      </c>
+      <c r="X770">
+        <v>-1</v>
+      </c>
+      <c r="Y770">
+        <v>-1</v>
+      </c>
+      <c r="Z770">
+        <v>0.8</v>
+      </c>
+      <c r="AA770">
+        <v>-1</v>
+      </c>
+      <c r="AB770">
         <v>1</v>
-      </c>
-      <c r="X770">
-        <v>-1</v>
-      </c>
-      <c r="Y770">
-        <v>-1</v>
-      </c>
-      <c r="Z770">
-        <v>1</v>
-      </c>
-      <c r="AA770">
-        <v>-1</v>
-      </c>
-      <c r="AB770">
-        <v>0.875</v>
       </c>
       <c r="AC770">
         <v>-1</v>
@@ -69273,7 +69273,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>8012116</v>
+        <v>8012114</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69285,13 +69285,13 @@
         <v>45377.375</v>
       </c>
       <c r="F771" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G771" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="H771">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I771">
         <v>1</v>
@@ -69300,43 +69300,43 @@
         <v>118</v>
       </c>
       <c r="K771">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L771">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M771">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N771">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O771">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P771">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q771">
         <v>-0.5</v>
       </c>
       <c r="R771">
+        <v>2</v>
+      </c>
+      <c r="S771">
         <v>1.8</v>
       </c>
-      <c r="S771">
-        <v>2</v>
-      </c>
       <c r="T771">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U771">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V771">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W771">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X771">
         <v>-1</v>
@@ -69345,13 +69345,13 @@
         <v>-1</v>
       </c>
       <c r="Z771">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA771">
         <v>-1</v>
       </c>
       <c r="AB771">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC771">
         <v>-1</v>
@@ -69985,7 +69985,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>8022409</v>
+        <v>8019204</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69997,40 +69997,40 @@
         <v>45379.64583333334</v>
       </c>
       <c r="F779" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G779" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H779">
+        <v>1</v>
+      </c>
+      <c r="I779">
         <v>0</v>
       </c>
-      <c r="I779">
-        <v>1</v>
-      </c>
       <c r="J779" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K779">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="L779">
         <v>3.4</v>
       </c>
       <c r="M779">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N779">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O779">
         <v>3.4</v>
       </c>
       <c r="P779">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q779">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R779">
         <v>1.8</v>
@@ -70042,31 +70042,31 @@
         <v>2.75</v>
       </c>
       <c r="U779">
+        <v>1.925</v>
+      </c>
+      <c r="V779">
         <v>1.875</v>
       </c>
-      <c r="V779">
-        <v>1.925</v>
-      </c>
       <c r="W779">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X779">
         <v>-1</v>
       </c>
       <c r="Y779">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z779">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA779">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB779">
         <v>-1</v>
       </c>
       <c r="AC779">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -70074,7 +70074,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>8019204</v>
+        <v>8022409</v>
       </c>
       <c r="C780" t="s">
         <v>28</v>
@@ -70086,40 +70086,40 @@
         <v>45379.64583333334</v>
       </c>
       <c r="F780" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G780" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="H780">
+        <v>0</v>
+      </c>
+      <c r="I780">
         <v>1</v>
       </c>
-      <c r="I780">
-        <v>0</v>
-      </c>
       <c r="J780" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K780">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L780">
         <v>3.4</v>
       </c>
       <c r="M780">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N780">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O780">
         <v>3.4</v>
       </c>
       <c r="P780">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q780">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R780">
         <v>1.8</v>
@@ -70131,31 +70131,31 @@
         <v>2.75</v>
       </c>
       <c r="U780">
+        <v>1.875</v>
+      </c>
+      <c r="V780">
         <v>1.925</v>
       </c>
-      <c r="V780">
-        <v>1.875</v>
-      </c>
       <c r="W780">
+        <v>-1</v>
+      </c>
+      <c r="X780">
+        <v>-1</v>
+      </c>
+      <c r="Y780">
+        <v>0.95</v>
+      </c>
+      <c r="Z780">
+        <v>-1</v>
+      </c>
+      <c r="AA780">
         <v>1</v>
       </c>
-      <c r="X780">
-        <v>-1</v>
-      </c>
-      <c r="Y780">
-        <v>-1</v>
-      </c>
-      <c r="Z780">
-        <v>0.8</v>
-      </c>
-      <c r="AA780">
-        <v>-1</v>
-      </c>
       <c r="AB780">
         <v>-1</v>
       </c>
       <c r="AC780">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="781" spans="1:29">
